--- a/result.xlsx
+++ b/result.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,331 +500,8657 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FairLunar</t>
+          <t>HolderSwap</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t xml:space="preserve"> 3 hours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 days </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021-05-07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GMR Finance</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t xml:space="preserve"> 11 hours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 days </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2021-05-07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dFund</t>
+          <t>ShibaPup</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t xml:space="preserve"> 16 hours</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 days </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2021-05-07</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AlgoPainter</t>
+          <t>Dirty Finance</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t xml:space="preserve"> 20 hours</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 days </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2021-05-06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ganesha Token</t>
+          <t>SafeIcarus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t xml:space="preserve"> 21 hours</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 days </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2021-05-06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pussy Financial</t>
+          <t>Raptor Finance</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t xml:space="preserve"> 21 hours</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 days </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2021-05-07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CCSwap</t>
+          <t>Lever Network</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t xml:space="preserve"> 21 hours</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 day </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2021-05-08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Wider Coin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t xml:space="preserve"> 21 hours</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 days </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2021-05-07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Echo</t>
+          <t>My DeFi Pet</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t xml:space="preserve"> 21 hours</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 day </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2021-05-08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ComfyToken</t>
+          <t>Diamond Token</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t xml:space="preserve"> 21 hours</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 days </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2021-05-07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>2021-05-09</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Phoenix Defi Finance</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21 hours</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-05-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DefiDrop</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21 hours</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-05-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ubeswap</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dogefather</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>xxxNifty</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Lion Token</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Happy Coin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MoonSmart</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MoonPirate</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shih Tzu</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dogemoon</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FairLunar</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Viper</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SafeRune</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>cWBTC (Legacy)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2 days</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rizen Coin</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Elons</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GMR Finance</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SeedSwap</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PolyMoon</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EarlyBSC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Koduro</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HyperChain X</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Echo Token</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SafeLight</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PinkElon</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chi Gastoken (BSC)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Live Swap Coin</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>dFund</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Greenheart CBD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ispolink</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Blizzard</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cheecoin</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Casper Network</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Clover Finance</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Helio</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Pocketcoin</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>bitFlowers</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Orfano</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AlgoPainter</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 days </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TrustPad</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NFTSwaps</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Oiler</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Universal Basic Income</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Regiment Finance</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Bulk Network</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3 days</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>miMatic</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PactSwap</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>W3bPUSH</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BarbecueSwap</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BlueWizard</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MocktailSwap</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>JaguarSwap</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PolyGaj</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Atlantic Finance</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ziticoin</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PalGold</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Growing.fi</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Privapp Network</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Securabyte Protocol</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Euro Ritva Token</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>UniFarm</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Omni Consumer Protocol</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Qawalla Token</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Secured MoonRat Token</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4 days</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Xiglute Coin</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PlumCake Finance</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Butter Token</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Milk Token</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Plethori</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oviex</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Horizon Dollar</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sage Finance</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>LimeSwap</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RedChillies</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hamtaro</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TradeStars</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bankless DAO</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Polycat Finance</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Adamant</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Unicly Beeple Collection</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TaoDAO</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Moonshot</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>JDI Token</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CoShi Inu</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Unicly Waifu Collection</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Helicopter Finance</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Crypto Puzzles</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>LlamaSwap</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>5 days</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ganesha Token</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 days </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Pussy Financial</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Gorilla Diamond</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Acent</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Cryptocart</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Review Capital</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PolyStar</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DungeonSwap</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Retro DEFI</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>KokoSwap</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Anti-Lockdown</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ProSwap</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Lunar Highway</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Infinity Protocol BSC</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>pCATv3</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PolyVolve Finance</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>GaiaDAO</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Realfinance Network</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Pixl Coin</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>AzeusX</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CrossPad</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TreeDefi</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ORAO Network</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>EpiK Protocol</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Stabilize BSC</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Chia IOU</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BakeryTools</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>WanSwap</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Wrapped ATROMG8</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>GlobalGive</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sensible Finance</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Next Level</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Aquari</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>6 days</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Rentible</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>LOCGame</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Chia</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Vira-Lata Finance</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SnowgeCoin</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>GreenTrust</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Life Token</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Verso</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Martian DAO</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>CaramelSwap</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>XTG World</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Tycoon</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ReChain</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>AEN Smart Token</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>CrossFi</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>XBN Community Token</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>CCSwap</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 day </t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Super Hero</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Niubiswap</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>EarnDeFi</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ZilChess</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Lympo Market Token</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Valkyrie Network</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Ares Protocol</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Yearn Compounding veCRV yVault</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Feeder Finance</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NFT Alley</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>7 days</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>HawkDex</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>8 days</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2GoShi</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>8 days</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>sCRV</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>8 days</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>sRUNE</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>8 days</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Crypto Kombat</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>8 days</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PolyDoge</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Sleepy Sloth Finance</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Kryptobellion</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NAOS Finance</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Fair Safe</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Media Network</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>MemePad</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Prism Network</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>MoonStar</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>xDitto</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>DSCVR.Finance</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>9 days</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>PantherSwap</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ChesterCoin</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Impermax</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BlackHole Protocol</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Roul Token</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Buildin</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Bafe.io</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Nicheman</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Tree Defi</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>JB Protocol</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>The Lab Finance</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ThunderBolt</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Full Send</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Eclipse</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>B.Protocol</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Maker Basic</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Memes Token</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>OXO.Farm</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hope Token</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sheesha Finance</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>oneVBTC</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>oneWING</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Standard Protocol</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Fraction</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>KeyFi</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Taco Cat</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Forestry Token</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10 days</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Charitas</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>WallStreetBets DApp</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>upBNB</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Sarcophagus</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>oneETH</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Token Echo</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 day </t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>CumRocket</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ModiHost</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ComfyToken</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Showcase Token</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Rug Busters</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BlockBank</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Vangold Token</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>HumanCoin</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>SendWhale</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>TopBidder</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Silver Gateway</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ENV Finance</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>UnoRe</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Frenchie</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>484 Fund</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ENEX</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Force DAO</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Pendle</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DefyDefi</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>SafeComet</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Dino Exchange</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>11 days</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>My Identity Coin</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>100xCoin</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Beer Token</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>CoinZoom Token</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Feta Token</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Moar Finance</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Strite</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>The Crypto Prophecies</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Bitriver</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Truebit Protocol</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Charli3</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Samoyedcoin</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Solarys</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>SafeGalaxy</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Component</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Alphr</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Smoothy</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>LonelyFans</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Mooni</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>StakeWise</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Neuro Charity</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Wall Street Baby</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ElenaUSD</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Degenerate Money</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>12 days</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>SafeLaunchpad</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Fortress</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Sensitrust</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>BSCGold</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>xBNT</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Smaugs NFT</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>CFX Quantum</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Melalie</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>NFT Art Finance</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Dex-Trade Coin</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Labra Finance</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Slam Token</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Klever Finance</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>MoonToken</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
           <t>Bonfire</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>13 days</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>2021-04-26</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D270" t="inlineStr">
         <is>
           <t xml:space="preserve">2 days </t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>2021-05-07</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F270" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Lottery Token</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>PinkMoon</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>ElonGate</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Polywhale</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>UnilayerX</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>PorkSwap</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Vulkania</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>PER Project</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>NIA Token</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>13 days</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>B Non-Fungible Yearn</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Blue Swap</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>CompliFi</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Mixsome</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Bitfresh</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ICICB Coin</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Mirror</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Paybswap</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>CaliCoin</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>PackagePortal</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>megaBonk</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Privateum</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Degen Arts</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Mochi Market</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Space Doge</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Wault</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>1MillionNFTs</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>14 days</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>StackOS</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Step Finance</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>SavePlanetEarth</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Papel Token</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Hokkaidu Inu</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Cops Finance</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>MoonMoon</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Based Loans Ownership</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>MoonBoys</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Jigstack</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>WindSwap</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Mogul Productions</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>DeFiScale</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Si14Bet</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Hord</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Torpedo</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Bribe Protocol</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Busy DAO</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>AurusSILVER</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Lemond</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>BSC Station</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Dogelon Mars</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Kilimanjaro</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Digible</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Fundum</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Crowny Token</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>AFEN Blockchain</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>UnitedCrowd</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Fomo Labs</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Chainswap</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Astronaut</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Ethersocks</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>KLend</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Lyfe Land</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Lyfe Silver</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Lyfe Gold</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>BXH Token</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Triforce Protocol</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Odin Protocol</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Cryptex Finance</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Frat</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>B2 Coin</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Obortech</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>One Army Coin</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Help Coins</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>DeHive</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Refinable</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Copiosa</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>7Plus Coin</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Unicly Mystic Axies Collection</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Bitnorm</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Icarus Finance</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Ampleforth Governance Token</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Brainaut DeFi</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Apron</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Unbox Art</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Real Coin</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Australian Safe Shepherd</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Carbon Labs</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Shield Network</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>FastMoon</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Unicly CryptoPunks Collection</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Xfit</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Unicly Genesis Collection</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Unicly Aavegotchi Astronauts Collection</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Unicly Doki Doki Collection</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ANTcoin</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Twinci</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Stoner Doge Finance</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Carillonium</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>MarshmallowDeFi</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>AP3.town</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>OrcaX</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Kishu Inu</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Meteorite Network</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Proton Project</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>NIFDO Protocol</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Mello Token</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Bingo Share</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Bficoin</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>WHEY</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>WaultSwap</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Coinbase Tokenized Stock on Bittrex</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Olive Cash</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Sentinel</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>MarsMission</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Climb Token Finance</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Havens Nook</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>LandBox</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ApeSwap Finance</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>EQUOS Origin</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Binance Wrapped BTC</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Blockchain Adventurers Guild</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Bnx Finex</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Daxhund</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>O-OCEAN-MAR22</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Typhoon Network</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Chainsquare</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>SUNI</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Newv Finance</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>PooCoin</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>EarnX</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Hedge4.AI</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>RevoNetwork</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>KelVPN</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>AlgOil</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>WhiteX Community</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Nebula Protocol</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>22 days</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>XSL Labs</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>22 days</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Momo Protocol</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>22 days</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Waffle</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>22 days</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Kianite</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>22 days</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Bulldog Token</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>22 days</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Husky</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Mist</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>SatisFinance</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Omcoin</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ANS Crypto Coin</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Deimos Token</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>dART Insurance</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Polkadex</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>PolkaDomain</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>IMO</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Unizen</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>To The Mars</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>MultiPlay</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Dopple Finance</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Stellar Invictus</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>GogolCoin</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Wrapped TON Crystal</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>eSwapping</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>23 days</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>AVNRich</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Neonic Finance</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>SuperLauncher</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Rowket</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>MoMo Key</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Harta Tech</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Dain Token</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Franklin</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Crypto Excellence</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Uniqly</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Token Kennel</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>MultiBridge</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Stonk</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Munch Token</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>EcoFi</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Raven X</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>OccamFi</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Mina Protocol (IOU)</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Lemur Finance</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Hyper Finance</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>RocketMoon</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Zignaly</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Horizon Protocol</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>SafeToken</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>24 days</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>disBalancer</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Evolution</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Norse Finance</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>kxUSD</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Satozhi</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Pumpy Farm</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Rocket Vault</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Genesis Shards</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>BlockSwap Network</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Coinbase Tokenized Stock on FTX</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Saren</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Wheat Token</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>25 days</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Space Monkey</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Froge Finance</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Revolution Populi</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Arteon</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Vulcan Forged</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Ethereum Push Notification Service - EPNS</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Brickchain Finance</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Raze Network</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>BasketCoin</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>26 days</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Hacash</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>27 days</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Wrapped Tezos</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>27 days</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>HyruleSwap</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>27 days</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Revomon</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>27 days</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Maple</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>27 days</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Chord Protocol</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>27 days</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Octans</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>27 days</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Xpool</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>28 days</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Passive Income Bot</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>28 days</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>YTV Coin</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>28 days</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Mobox</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>28 days</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Saito</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>28 days</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>ETET Finance</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>29 days</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Deeper Network</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>29 days</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Yellow Road</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>29 days</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Beyond Finance</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>29 days</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Fox Finance</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>29 days</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Hugo Finance</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>29 days</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Cub Finance</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Airdrop World</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Equalizer</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Secure Pad</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Kattana</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>StingDefi</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Riskmoon</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 month</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Oction</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 month</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Loom Network (NEW)</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 month</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>PoFi</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 month</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Professional Fighters League Fan Token</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 month</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,17 +500,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Papa Shiba</t>
+          <t>MoonJuice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t xml:space="preserve"> 19 hours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -520,17 +520,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Avalaunch</t>
+          <t>Nafter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,37 +540,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SpaceCorgi</t>
+          <t>Alaska Inu</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -580,32 +580,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baby Shiba</t>
+          <t>Elongate Deluxe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -620,137 +620,137 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PlutoPepe</t>
+          <t>SafeZone</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kabosu</t>
+          <t>Papa Shiba</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MoonTrust</t>
+          <t>Pinknode</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Richie</t>
+          <t>Avalaunch</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sanshu Inu</t>
+          <t>SpaceCorgi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -764,53 +764,53 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Blocktyme</t>
+          <t>Baby Shiba</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CateCoin</t>
+          <t>PlutoPepe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lady Luck</t>
+          <t>Kabosu</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -840,37 +840,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CryptoBlades</t>
+          <t>MoonTrust</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ShibaPup</t>
+          <t>Richie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -900,37 +900,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>2021-05-10</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2021-05-08</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2021-05-11</t>
-        </is>
-      </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shih Tzu</t>
+          <t>Sanshu Inu</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -944,23 +944,23 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AlgoPainter</t>
+          <t>Blocktyme</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -970,87 +970,87 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WeStarter</t>
+          <t>CateCoin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PalGold</t>
+          <t>Lady Luck</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ganesha Token</t>
+          <t>CryptoBlades</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1060,27 +1060,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pussy Financial</t>
+          <t>ShibaPup</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1090,137 +1090,137 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gorilla Diamond</t>
+          <t>Shih Tzu</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lunar Highway</t>
+          <t>Koduro</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rentible</t>
+          <t>AlgoPainter</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SnowgeCoin</t>
+          <t>PalGold</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CCSwap</t>
+          <t>Ganesha Token</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1240,87 +1240,87 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Prism Network</t>
+          <t>Pussy Financial</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Gorilla Diamond</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WallStreetBets DApp</t>
+          <t>Lunar Highway</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1330,37 +1330,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Token Echo</t>
+          <t>SnowgeCoin</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1370,61 +1370,181 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sensitrust</t>
+          <t>CCSwap</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AFEN Blockchain</t>
+          <t>Prism Network</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22 days</t>
+          <t>16 days</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-04-22</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t xml:space="preserve">3 days </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2021-05-13</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BlockBank</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2021-05-16</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SafeLaunchpad</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t xml:space="preserve">2 days </t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2021-05-12</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>20</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sensitrust</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 days </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2021-05-13</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,67 +500,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MoonJuice</t>
+          <t>Relite Finance</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 hours</t>
+          <t xml:space="preserve"> 7 hours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nafter</t>
+          <t>420x</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t xml:space="preserve"> 18 hours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alaska Inu</t>
+          <t>EthereumMax</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,32 +570,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elongate Deluxe</t>
+          <t>MoonJuice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,27 +605,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SafeZone</t>
+          <t>Float Protocol: Float</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,22 +635,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Papa Shiba</t>
+          <t>LaunchX</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -660,27 +660,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pinknode</t>
+          <t>Nafter</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avalaunch</t>
+          <t>Alaska Inu</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2021-05-13</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 days </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -740,17 +740,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SpaceCorgi</t>
+          <t>Elongate Deluxe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -760,27 +760,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Baby Shiba</t>
+          <t>SafeZone</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -790,37 +790,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PlutoPepe</t>
+          <t>Change Our World</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -830,57 +830,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kabosu</t>
+          <t>Pinknode</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MoonTrust</t>
+          <t>Avalaunch</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -890,7 +890,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Richie</t>
+          <t>SpaceCorgi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -910,17 +910,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sanshu Inu</t>
+          <t>PlutoPepe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -944,18 +944,18 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Blocktyme</t>
+          <t>Kabosu</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -980,12 +980,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CateCoin</t>
+          <t>MoonTrust</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1010,7 +1010,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lady Luck</t>
+          <t>Richie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1020,27 +1020,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CryptoBlades</t>
+          <t>Sanshu Inu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1060,27 +1060,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ShibaPup</t>
+          <t>Blocktyme</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1090,27 +1090,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shih Tzu</t>
+          <t>CateCoin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1120,57 +1120,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Koduro</t>
+          <t>CryptoBlades</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AlgoPainter</t>
+          <t>ShibaPup</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PalGold</t>
+          <t>Shih Tzu</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1200,132 +1200,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ganesha Token</t>
+          <t>Koduro</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pussy Financial</t>
+          <t>Ispolink</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gorilla Diamond</t>
+          <t>AlgoPainter</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lunar Highway</t>
+          <t>PalGold</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1334,18 +1334,18 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SnowgeCoin</t>
+          <t>Ganesha Token</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1355,22 +1355,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CCSwap</t>
+          <t>Pussy Financial</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1390,27 +1390,27 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Prism Network</t>
+          <t>Gorilla Diamond</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1420,107 +1420,107 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Lunar Highway</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BlockBank</t>
+          <t>CCSwap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18 days</t>
+          <t>15 days</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SafeLaunchpad</t>
+          <t>Altura</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19 days</t>
+          <t>18 days</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sensitrust</t>
+          <t>Token Echo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1530,21 +1530,81 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-04-28</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>16</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BlockBank</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 day </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2021-05-16</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SafeLaunchpad</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>21 days</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,17 +500,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Relite Finance</t>
+          <t>Wenlambo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 hours</t>
+          <t xml:space="preserve"> 5 hours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -530,47 +530,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>420x</t>
+          <t>SafeMusk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 hours</t>
+          <t xml:space="preserve"> 10 hours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EthereumMax</t>
+          <t>YooShi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t xml:space="preserve"> 13 hours</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -580,37 +580,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MoonJuice</t>
+          <t>Rune</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t xml:space="preserve"> 15 hours</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -620,22 +620,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Float Protocol: Float</t>
+          <t>Tiger King</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t xml:space="preserve"> 15 hours</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -644,23 +644,23 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LaunchX</t>
+          <t>GeroWallet</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t xml:space="preserve"> 17 hours</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -670,37 +670,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nafter</t>
+          <t>Exohood</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t xml:space="preserve"> 22 hours</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -710,17 +710,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Alaska Inu</t>
+          <t>Relite Finance</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -730,37 +730,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Elongate Deluxe</t>
+          <t>Convex Finance</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -770,87 +770,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SafeZone</t>
+          <t>420x</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Change Our World</t>
+          <t>EthereumMax</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pinknode</t>
+          <t>Float Protocol: Float</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -860,7 +860,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Avalaunch</t>
+          <t>LaunchX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -870,37 +870,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SpaceCorgi</t>
+          <t>Nafter</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -910,27 +910,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PlutoPepe</t>
+          <t>Alaska Inu</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -940,27 +940,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kabosu</t>
+          <t>Elongate Deluxe</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -980,17 +980,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MoonTrust</t>
+          <t>SafeZone</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,27 +1000,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Richie</t>
+          <t>Change Our World</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1030,27 +1030,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sanshu Inu</t>
+          <t>Pinknode</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1060,27 +1060,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Blocktyme</t>
+          <t>Avalaunch</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1100,7 +1100,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CateCoin</t>
+          <t>SpaceCorgi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1120,27 +1120,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CryptoBlades</t>
+          <t>PlutoPepe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1160,17 +1160,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ShibaPup</t>
+          <t>Kabosu</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1184,23 +1184,23 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Shih Tzu</t>
+          <t>MoonTrust</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1214,83 +1214,83 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Koduro</t>
+          <t>Richie</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ispolink</t>
+          <t>Sanshu Inu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AlgoPainter</t>
+          <t>Blocktyme</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1300,57 +1300,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PalGold</t>
+          <t>CateCoin</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ganesha Token</t>
+          <t>CryptoBlades</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1360,27 +1360,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pussy Financial</t>
+          <t>ShibaPup</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1390,37 +1390,37 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gorilla Diamond</t>
+          <t>MoonPirate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1430,47 +1430,47 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lunar Highway</t>
+          <t>Shih Tzu</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CCSwap</t>
+          <t>Koduro</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1480,57 +1480,57 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Ispolink</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Token Echo</t>
+          <t>AlgoPainter</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1540,71 +1540,281 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BlockBank</t>
+          <t>PalGold</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SafeLaunchpad</t>
+          <t>Oviex</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>21 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>2021-05-17</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ganesha Token</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pussy Financial</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Gorilla Diamond</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>2021-05-14</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>18</v>
+      <c r="F41" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Lunar Highway</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15 days</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CCSwap</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Token Echo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>20 days</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,42 +500,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wenlambo</t>
+          <t>Bistroo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 hours</t>
+          <t xml:space="preserve"> 11 hours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SafeMusk</t>
+          <t>Wenlambo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10 hours</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YooShi</t>
+          <t>SafeMusk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13 hours</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rune</t>
+          <t>YooShi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 hours</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -620,12 +620,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tiger King</t>
+          <t>Rune</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 hours</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,22 +640,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GeroWallet</t>
+          <t>Tiger King</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 hours</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,27 +665,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Exohood</t>
+          <t>GeroWallet</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 hours</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,22 +700,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Relite Finance</t>
+          <t>Exohood</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -740,12 +740,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Convex Finance</t>
+          <t>Relite Finance</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,22 +755,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>420x</t>
+          <t>Convex Finance</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -780,32 +780,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EthereumMax</t>
+          <t>420x</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -815,22 +815,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Float Protocol: Float</t>
+          <t>Elephant Money</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -840,37 +840,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LaunchX</t>
+          <t>EthereumMax</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -884,43 +884,43 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nafter</t>
+          <t>Wild Ride</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alaska Inu</t>
+          <t>MoonJuice</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Elongate Deluxe</t>
+          <t>Float Protocol: Float</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -970,22 +970,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SafeZone</t>
+          <t>LaunchX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1000,22 +1000,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Change Our World</t>
+          <t>Nafter</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pinknode</t>
+          <t>Alaska Inu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1050,27 +1050,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2021-05-15</t>
-        </is>
-      </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Avalaunch</t>
+          <t>Elongate Deluxe</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1080,17 +1080,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2021-05-13</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1100,17 +1100,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SpaceCorgi</t>
+          <t>SafeZone</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1130,17 +1130,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PlutoPepe</t>
+          <t>Change Our World</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1160,17 +1160,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kabosu</t>
+          <t>Pinknode</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1180,27 +1180,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MoonTrust</t>
+          <t>Avalaunch</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1220,7 +1220,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Richie</t>
+          <t>SpaceCorgi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sanshu Inu</t>
+          <t>PlutoPepe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1274,18 +1274,18 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Blocktyme</t>
+          <t>Kabosu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1310,12 +1310,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CateCoin</t>
+          <t>MoonTrust</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1340,7 +1340,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CryptoBlades</t>
+          <t>PrivacySwap</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1350,97 +1350,97 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ShibaPup</t>
+          <t>Richie</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>2021-05-10</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>2021-05-08</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2021-05-11</t>
-        </is>
-      </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MoonPirate</t>
+          <t>Sanshu Inu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Shih Tzu</t>
+          <t>Blocktyme</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1450,27 +1450,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Koduro</t>
+          <t>CateCoin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1480,57 +1480,57 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ispolink</t>
+          <t>CryptoBlades</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AlgoPainter</t>
+          <t>ShibaPup</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1540,27 +1540,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PalGold</t>
+          <t>MoonPirate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1570,57 +1570,57 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Oviex</t>
+          <t>Shih Tzu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ganesha Token</t>
+          <t>Koduro</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1630,57 +1630,57 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pussy Financial</t>
+          <t>PinkElon</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gorilla Diamond</t>
+          <t>Ispolink</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1700,17 +1700,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lunar Highway</t>
+          <t>AlgoPainter</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CCSwap</t>
+          <t>PalGold</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1750,27 +1750,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Oviex</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19 days</t>
+          <t>15 days</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1780,41 +1780,221 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Token Echo</t>
+          <t>Ganesha Token</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pussy Financial</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gorilla Diamond</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lunar Highway</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Aquari</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 day </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CCSwap</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>20 days</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2021-04-28</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2021-05-08</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,47 +500,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bistroo</t>
+          <t>Chihua Token</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 hours</t>
+          <t xml:space="preserve"> 18 hours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2021-05-20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 day </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021-05-17</t>
-        </is>
-      </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wenlambo</t>
+          <t>Baby Shark</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t xml:space="preserve"> 18 hours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -550,27 +550,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SafeMusk</t>
+          <t>American Shiba</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t xml:space="preserve"> 18 hours</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -580,47 +580,47 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YooShi</t>
+          <t>Green Shiba Inu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t xml:space="preserve"> 18 hours</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2021-05-20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>2021-05-18</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2021-05-18</t>
-        </is>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rune</t>
+          <t>Bistroo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tiger King</t>
+          <t>Wenlambo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,22 +670,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GeroWallet</t>
+          <t>SafeMusk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -710,12 +710,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Exohood</t>
+          <t>YooShi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,22 +730,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Relite Finance</t>
+          <t>Rune</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -760,22 +760,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Convex Finance</t>
+          <t>Tiger King</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -785,22 +785,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>420x</t>
+          <t>GeroWallet</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Elephant Money</t>
+          <t>Exohood</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -840,27 +840,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EthereumMax</t>
+          <t>Relite Finance</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wild Ride</t>
+          <t>Convex Finance</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MoonJuice</t>
+          <t>420x</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Float Protocol: Float</t>
+          <t>Elephant Money</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -960,37 +960,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LaunchX</t>
+          <t>EthereumMax</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1004,43 +1004,43 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nafter</t>
+          <t>Wild Ride</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alaska Inu</t>
+          <t>upShib</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1050,27 +1050,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Elongate Deluxe</t>
+          <t>MoonJuice</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1090,17 +1090,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SafeZone</t>
+          <t>Float Protocol: Float</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1120,22 +1120,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Change Our World</t>
+          <t>LaunchX</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pinknode</t>
+          <t>Nafter</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Avalaunch</t>
+          <t>Alaska Inu</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>2021-05-13</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1220,17 +1220,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SpaceCorgi</t>
+          <t>Elongate Deluxe</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1240,27 +1240,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PlutoPepe</t>
+          <t>SafeZone</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1280,17 +1280,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kabosu</t>
+          <t>Change Our World</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1300,27 +1300,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MoonTrust</t>
+          <t>Pinknode</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1330,47 +1330,47 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PrivacySwap</t>
+          <t>Avalaunch</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Richie</t>
+          <t>SpaceCorgi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1390,17 +1390,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sanshu Inu</t>
+          <t>PlutoPepe</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1424,13 +1424,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Blocktyme</t>
+          <t>SafeOrbit</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1440,32 +1440,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CateCoin</t>
+          <t>Kabosu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1490,7 +1490,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CryptoBlades</t>
+          <t>MoonTrust</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1510,57 +1510,57 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ShibaPup</t>
+          <t>PrivacySwap</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MoonPirate</t>
+          <t>Richie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1570,27 +1570,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Shih Tzu</t>
+          <t>Sanshu Inu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1604,23 +1604,23 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Koduro</t>
+          <t>Blocktyme</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1630,57 +1630,57 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PinkElon</t>
+          <t>CateCoin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>10 days</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ispolink</t>
+          <t>CryptoBlades</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1690,27 +1690,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AlgoPainter</t>
+          <t>ShibaPup</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1720,57 +1720,57 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PalGold</t>
+          <t>xxxNifty</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oviex</t>
+          <t>MoonPirate</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1784,23 +1784,23 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ganesha Token</t>
+          <t>Shih Tzu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1810,27 +1810,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pussy Financial</t>
+          <t>Koduro</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1840,57 +1840,57 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gorilla Diamond</t>
+          <t>PinkElon</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lunar Highway</t>
+          <t>Ispolink</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -1910,47 +1910,47 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aquari</t>
+          <t>AlgoPainter</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CCSwap</t>
+          <t>PalGold</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>15 days</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1960,27 +1960,27 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Oviex</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20 days</t>
+          <t>16 days</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1990,11 +1990,191 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>2021-05-17</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ganesha Token</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pussy Financial</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>2021-05-07</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>8</v>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Gorilla Diamond</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Lunar Highway</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Aquari</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CCSwap</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>18 days</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,27 +500,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chihua Token</t>
+          <t>SafeBlast</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 hours</t>
+          <t xml:space="preserve"> 12 hours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2021-05-21</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 day </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>2021-05-20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 day </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -530,27 +530,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baby Shark</t>
+          <t>CluCoin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 hours</t>
+          <t xml:space="preserve"> 13 hours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2021-05-21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 day </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>2021-05-20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 day </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -560,12 +560,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>American Shiba</t>
+          <t>Chihua Token</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 hours</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Green Shiba Inu</t>
+          <t>Baby Shark</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 hours</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,22 +605,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bistroo</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -630,147 +630,147 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>2021-05-20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 days </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2021-05-17</t>
-        </is>
-      </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wenlambo</t>
+          <t>American Shiba</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SafeMusk</t>
+          <t>Green Shiba Inu</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2021-05-20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>2021-05-18</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2021-05-18</t>
-        </is>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YooShi</t>
+          <t>Bistroo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>2021-05-19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2021-05-17</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2021-05-18</t>
-        </is>
-      </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rune</t>
+          <t>Bezoge Earth</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tiger King</t>
+          <t>Wenlambo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -800,7 +800,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GeroWallet</t>
+          <t>SafeMusk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Exohood</t>
+          <t>YooShi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -860,7 +860,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Relite Finance</t>
+          <t>Rune</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -890,7 +890,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Convex Finance</t>
+          <t>Tiger King</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2021-05-17</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -920,17 +920,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>420x</t>
+          <t>GeroWallet</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Elephant Money</t>
+          <t>Exohood</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -960,27 +960,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EthereumMax</t>
+          <t>Relite Finance</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wild Ride</t>
+          <t>Convex Finance</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1020,12 +1020,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>upShib</t>
+          <t>420x</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1050,27 +1050,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MoonJuice</t>
+          <t>Elephant Money</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1080,27 +1080,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Float Protocol: Float</t>
+          <t>EthereumMax</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1124,23 +1124,23 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LaunchX</t>
+          <t>Wild Ride</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1150,47 +1150,47 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nafter</t>
+          <t>upShib</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Alaska Inu</t>
+          <t>MoonJuice</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1210,17 +1210,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Elongate Deluxe</t>
+          <t>Float Protocol: Float</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SafeZone</t>
+          <t>LaunchX</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1270,17 +1270,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Change Our World</t>
+          <t>Nafter</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1310,7 +1310,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pinknode</t>
+          <t>Alaska Inu</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1320,27 +1320,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2021-05-15</t>
-        </is>
-      </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Avalaunch</t>
+          <t>Elongate Deluxe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1350,17 +1350,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>2021-05-13</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1370,17 +1370,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SpaceCorgi</t>
+          <t>SafeZone</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1400,17 +1400,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PlutoPepe</t>
+          <t>Change Our World</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1430,47 +1430,47 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SafeOrbit</t>
+          <t>Pinknode</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kabosu</t>
+          <t>Avalaunch</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1490,17 +1490,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MoonTrust</t>
+          <t>SpaceCorgi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1520,67 +1520,67 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PrivacySwap</t>
+          <t>PlutoPepe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Richie</t>
+          <t>SafeOrbit</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sanshu Inu</t>
+          <t>Kabosu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Blocktyme</t>
+          <t>MoonTrust</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1630,17 +1630,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CateCoin</t>
+          <t>PrivacySwap</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1650,27 +1650,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CryptoBlades</t>
+          <t>Richie</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1690,27 +1690,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ShibaPup</t>
+          <t>Sanshu Inu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1724,53 +1724,53 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>xxxNifty</t>
+          <t>Blocktyme</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MoonPirate</t>
+          <t>CateCoin</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>11 days</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1780,27 +1780,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Shih Tzu</t>
+          <t>CryptoBlades</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1810,27 +1810,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Koduro</t>
+          <t>ShibaPup</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1840,17 +1840,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PinkElon</t>
+          <t>xxxNifty</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1880,7 +1880,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ispolink</t>
+          <t>MoonPirate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1904,13 +1904,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AlgoPainter</t>
+          <t>Shih Tzu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1930,27 +1930,27 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PalGold</t>
+          <t>Koduro</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1960,57 +1960,57 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Oviex</t>
+          <t>PinkElon</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ganesha Token</t>
+          <t>Ispolink</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>15 days</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2020,27 +2020,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pussy Financial</t>
+          <t>AlgoPainter</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>15 days</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2050,27 +2050,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gorilla Diamond</t>
+          <t>PalGold</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>15 days</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2084,23 +2084,23 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lunar Highway</t>
+          <t>Oviex</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>16 days</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2110,71 +2110,161 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aquari</t>
+          <t>Ganesha Token</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18 days</t>
+          <t>17 days</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CCSwap</t>
+          <t>Pussy Financial</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Gorilla Diamond</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Lunar Highway</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Aquari</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>18 days</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2021-05-02</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2021-05-08</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>6</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,27 +500,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SafeBlast</t>
+          <t>ApeHaven</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 hours</t>
+          <t xml:space="preserve"> 11 hours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-05-21</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-23</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -530,27 +530,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CluCoin</t>
+          <t>Graviton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13 hours</t>
+          <t xml:space="preserve"> 24 hours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-05-21</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-23</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -560,67 +560,67 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chihua Token</t>
+          <t>Orange Token</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t xml:space="preserve"> 24 hours</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baby Shark</t>
+          <t>NOA PLAY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t xml:space="preserve"> 24 hours</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chihuahua</t>
+          <t>Netvrk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -650,17 +650,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>American Shiba</t>
+          <t>SafeBlast</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -670,107 +670,107 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Green Shiba Inu</t>
+          <t>CluCoin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bistroo</t>
+          <t>Chihua Token</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bezoge Earth</t>
+          <t>Baby Shark</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-05-21</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wenlambo</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -790,17 +790,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SafeMusk</t>
+          <t>American Shiba</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">3 days </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -830,7 +830,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YooShi</t>
+          <t>Green Shiba Inu</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -840,37 +840,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>2021-05-20</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2021-05-18</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2021-05-18</t>
-        </is>
-      </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rune</t>
+          <t>Bistroo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -880,77 +880,77 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tiger King</t>
+          <t>Bezoge Earth</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GeroWallet</t>
+          <t>Zoo Token</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-23</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Exohood</t>
+          <t>Wenlambo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -970,27 +970,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Relite Finance</t>
+          <t>SafeMusk</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1010,17 +1010,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Convex Finance</t>
+          <t>YooShi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>420x</t>
+          <t>Rune</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Elephant Money</t>
+          <t>Tiger King</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1080,27 +1080,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EthereumMax</t>
+          <t>GeroWallet</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1120,17 +1120,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wild Ride</t>
+          <t>Exohood</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>upShib</t>
+          <t>Relite Finance</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1170,37 +1170,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-16</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MoonJuice</t>
+          <t>Convex Finance</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1220,7 +1220,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Float Protocol: Float</t>
+          <t>420x</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LaunchX</t>
+          <t>Elephant Money</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1280,17 +1280,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nafter</t>
+          <t>EthereumMax</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alaska Inu</t>
+          <t>Wild Ride</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1330,17 +1330,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Elongate Deluxe</t>
+          <t>upShib</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1350,27 +1350,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SafeZone</t>
+          <t>Unicly</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1380,27 +1380,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">1 day </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-22</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Change Our World</t>
+          <t>MoonJuice</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1420,27 +1420,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pinknode</t>
+          <t>Float Protocol: Float</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1450,17 +1450,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Avalaunch</t>
+          <t>LaunchX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1480,27 +1480,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SpaceCorgi</t>
+          <t>Nafter</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1510,27 +1510,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PlutoPepe</t>
+          <t>Alaska Inu</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1540,57 +1540,57 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SafeOrbit</t>
+          <t>Elongate Deluxe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kabosu</t>
+          <t>SafeZone</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1600,27 +1600,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MoonTrust</t>
+          <t>Change Our World</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>8 days</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1630,57 +1630,57 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PrivacySwap</t>
+          <t>Pinknode</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Richie</t>
+          <t>Avalaunch</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11 days</t>
+          <t>9 days</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1690,17 +1690,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sanshu Inu</t>
+          <t>SpaceCorgi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1730,7 +1730,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Blocktyme</t>
+          <t>PlutoPepe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1760,7 +1760,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CateCoin</t>
+          <t>SafeOrbit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1770,27 +1770,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CryptoBlades</t>
+          <t>Kabosu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1820,7 +1820,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ShibaPup</t>
+          <t>MoonTrust</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1844,53 +1844,53 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>xxxNifty</t>
+          <t>PrivacySwap</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 day </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MoonPirate</t>
+          <t>Richie</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1900,27 +1900,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Shih Tzu</t>
+          <t>Sanshu Inu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1934,23 +1934,23 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Koduro</t>
+          <t>Blocktyme</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1960,57 +1960,57 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PinkElon</t>
+          <t>CateCoin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14 days</t>
+          <t>12 days</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 days </t>
+          <t>outdated</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ispolink</t>
+          <t>CryptoBlades</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>13 days</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2020,27 +2020,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AlgoPainter</t>
+          <t>ShibaPup</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>14 days</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2050,47 +2050,47 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PalGold</t>
+          <t>xxxNifty</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15 days</t>
+          <t>16 days</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t xml:space="preserve">2 days </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Oviex</t>
+          <t>MoonPirate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2114,23 +2114,23 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ganesha Token</t>
+          <t>Shih Tzu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>16 days</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2140,27 +2140,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Pussy Financial</t>
+          <t>Koduro</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>16 days</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2170,27 +2170,27 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gorilla Diamond</t>
+          <t>PinkElon</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>16 days</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2200,27 +2200,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lunar Highway</t>
+          <t>Ispolink</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>17 days</t>
+          <t>16 days</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2240,31 +2240,181 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aquari</t>
+          <t>AlgoPainter</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>16 days</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PalGold</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>17 days</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oviex</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>18 days</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2021-05-03</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>outdated</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2021-05-18</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>15</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2021-05-17</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ganesha Token</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Pussy Financial</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Gorilla Diamond</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>19 days</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
